--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Adora1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Adora1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,51 +540,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1421153333333333</v>
+        <v>0.05069933333333334</v>
       </c>
       <c r="N2">
-        <v>0.4263459999999999</v>
+        <v>0.152098</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2195324373905752</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2195324373905752</v>
       </c>
       <c r="Q2">
-        <v>27.77436545286466</v>
+        <v>10.01531718031978</v>
       </c>
       <c r="R2">
-        <v>249.9692890757819</v>
+        <v>90.137854622878</v>
       </c>
       <c r="S2">
-        <v>0.3095741734129938</v>
+        <v>0.07439303963755813</v>
       </c>
       <c r="T2">
-        <v>0.3095741734129938</v>
+        <v>0.07439303963755811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.82725266666667</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>239.481758</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.1264482133280045</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.1264482133280045</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,33 +620,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1421153333333333</v>
+        <v>0.1795236666666667</v>
       </c>
       <c r="N3">
-        <v>0.4263459999999999</v>
+        <v>0.538571</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7773527879254128</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7773527879254128</v>
       </c>
       <c r="Q3">
-        <v>11.34467662180755</v>
+        <v>35.46371016793122</v>
       </c>
       <c r="R3">
-        <v>102.102089596268</v>
+        <v>319.173391511381</v>
       </c>
       <c r="S3">
-        <v>0.1264482133280045</v>
+        <v>0.2634218316522197</v>
       </c>
       <c r="T3">
-        <v>0.1264482133280045</v>
+        <v>0.2634218316522197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.5116576666667</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>487.534973</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.2574222219914007</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.2574222219914007</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1421153333333333</v>
+        <v>0.0007193333333333334</v>
       </c>
       <c r="N4">
-        <v>0.4263459999999999</v>
+        <v>0.002158</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.003114774684012027</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.003114774684012027</v>
       </c>
       <c r="Q4">
-        <v>23.09539839985089</v>
+        <v>0.1420995310597778</v>
       </c>
       <c r="R4">
-        <v>207.858585598658</v>
+        <v>1.278895779538</v>
       </c>
       <c r="S4">
-        <v>0.2574222219914007</v>
+        <v>0.001055504868820435</v>
       </c>
       <c r="T4">
-        <v>0.2574222219914007</v>
+        <v>0.001055504868820434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.73857866666668</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H5">
-        <v>101.215736</v>
+        <v>239.481758</v>
       </c>
       <c r="I5">
-        <v>0.05344268843173845</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J5">
-        <v>0.05344268843173845</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1421153333333333</v>
+        <v>0.05069933333333334</v>
       </c>
       <c r="N5">
-        <v>0.4263459999999999</v>
+        <v>0.152098</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.2195324373905752</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.2195324373905752</v>
       </c>
       <c r="Q5">
-        <v>4.794769353406223</v>
+        <v>4.047188492031556</v>
       </c>
       <c r="R5">
-        <v>43.152924180656</v>
+        <v>36.424696428284</v>
       </c>
       <c r="S5">
-        <v>0.05344268843173845</v>
+        <v>0.03006221854860511</v>
       </c>
       <c r="T5">
-        <v>0.05344268843173845</v>
+        <v>0.0300622185486051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>159.7910413333333</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H6">
-        <v>479.373124</v>
+        <v>239.481758</v>
       </c>
       <c r="I6">
-        <v>0.2531127028358625</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J6">
-        <v>0.2531127028358626</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,648 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1421153333333333</v>
+        <v>0.1795236666666667</v>
       </c>
       <c r="N6">
-        <v>0.4263459999999999</v>
+        <v>0.538571</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.7773527879254128</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.7773527879254128</v>
       </c>
       <c r="Q6">
-        <v>22.70875710276711</v>
+        <v>14.33088109864644</v>
       </c>
       <c r="R6">
-        <v>204.378813924904</v>
+        <v>128.977929887818</v>
       </c>
       <c r="S6">
-        <v>0.2531127028358625</v>
+        <v>0.1064487311203356</v>
       </c>
       <c r="T6">
-        <v>0.2531127028358626</v>
+        <v>0.1064487311203356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>79.82725266666667</v>
+      </c>
+      <c r="H7">
+        <v>239.481758</v>
+      </c>
+      <c r="I7">
+        <v>0.1369374790620155</v>
+      </c>
+      <c r="J7">
+        <v>0.1369374790620154</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.0007193333333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.002158</v>
+      </c>
+      <c r="O7">
+        <v>0.003114774684012027</v>
+      </c>
+      <c r="P7">
+        <v>0.003114774684012027</v>
+      </c>
+      <c r="Q7">
+        <v>0.05742240375155556</v>
+      </c>
+      <c r="R7">
+        <v>0.516801633764</v>
+      </c>
+      <c r="S7">
+        <v>0.0004265293930747927</v>
+      </c>
+      <c r="T7">
+        <v>0.0004265293930747927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>148.824417</v>
+      </c>
+      <c r="H8">
+        <v>446.473251</v>
+      </c>
+      <c r="I8">
+        <v>0.2552967790580629</v>
+      </c>
+      <c r="J8">
+        <v>0.2552967790580629</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.05069933333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.152098</v>
+      </c>
+      <c r="O8">
+        <v>0.2195324373905752</v>
+      </c>
+      <c r="P8">
+        <v>0.2195324373905752</v>
+      </c>
+      <c r="Q8">
+        <v>7.545298725622001</v>
+      </c>
+      <c r="R8">
+        <v>67.90768853059801</v>
+      </c>
+      <c r="S8">
+        <v>0.05604592416457968</v>
+      </c>
+      <c r="T8">
+        <v>0.05604592416457968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>148.824417</v>
+      </c>
+      <c r="H9">
+        <v>446.473251</v>
+      </c>
+      <c r="I9">
+        <v>0.2552967790580629</v>
+      </c>
+      <c r="J9">
+        <v>0.2552967790580629</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1795236666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.538571</v>
+      </c>
+      <c r="O9">
+        <v>0.7773527879254128</v>
+      </c>
+      <c r="P9">
+        <v>0.7773527879254128</v>
+      </c>
+      <c r="Q9">
+        <v>26.717505029369</v>
+      </c>
+      <c r="R9">
+        <v>240.457545264321</v>
+      </c>
+      <c r="S9">
+        <v>0.1984556629491633</v>
+      </c>
+      <c r="T9">
+        <v>0.1984556629491633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>148.824417</v>
+      </c>
+      <c r="H10">
+        <v>446.473251</v>
+      </c>
+      <c r="I10">
+        <v>0.2552967790580629</v>
+      </c>
+      <c r="J10">
+        <v>0.2552967790580629</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.0007193333333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.002158</v>
+      </c>
+      <c r="O10">
+        <v>0.003114774684012027</v>
+      </c>
+      <c r="P10">
+        <v>0.003114774684012027</v>
+      </c>
+      <c r="Q10">
+        <v>0.107054363962</v>
+      </c>
+      <c r="R10">
+        <v>0.9634892756580001</v>
+      </c>
+      <c r="S10">
+        <v>0.0007951919443198659</v>
+      </c>
+      <c r="T10">
+        <v>0.0007951919443198659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>35.426853</v>
+      </c>
+      <c r="H11">
+        <v>106.280559</v>
+      </c>
+      <c r="I11">
+        <v>0.06077202683121193</v>
+      </c>
+      <c r="J11">
+        <v>0.06077202683121192</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.05069933333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.152098</v>
+      </c>
+      <c r="O11">
+        <v>0.2195324373905752</v>
+      </c>
+      <c r="P11">
+        <v>0.2195324373905752</v>
+      </c>
+      <c r="Q11">
+        <v>1.796117829198</v>
+      </c>
+      <c r="R11">
+        <v>16.165060462782</v>
+      </c>
+      <c r="S11">
+        <v>0.01334143117542138</v>
+      </c>
+      <c r="T11">
+        <v>0.01334143117542138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>35.426853</v>
+      </c>
+      <c r="H12">
+        <v>106.280559</v>
+      </c>
+      <c r="I12">
+        <v>0.06077202683121193</v>
+      </c>
+      <c r="J12">
+        <v>0.06077202683121192</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1795236666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.538571</v>
+      </c>
+      <c r="O12">
+        <v>0.7773527879254128</v>
+      </c>
+      <c r="P12">
+        <v>0.7773527879254128</v>
+      </c>
+      <c r="Q12">
+        <v>6.359958549021</v>
+      </c>
+      <c r="R12">
+        <v>57.239626941189</v>
+      </c>
+      <c r="S12">
+        <v>0.04724130448512058</v>
+      </c>
+      <c r="T12">
+        <v>0.04724130448512058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>35.426853</v>
+      </c>
+      <c r="H13">
+        <v>106.280559</v>
+      </c>
+      <c r="I13">
+        <v>0.06077202683121193</v>
+      </c>
+      <c r="J13">
+        <v>0.06077202683121192</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.0007193333333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.002158</v>
+      </c>
+      <c r="O13">
+        <v>0.003114774684012027</v>
+      </c>
+      <c r="P13">
+        <v>0.003114774684012027</v>
+      </c>
+      <c r="Q13">
+        <v>0.025483716258</v>
+      </c>
+      <c r="R13">
+        <v>0.229353446322</v>
+      </c>
+      <c r="S13">
+        <v>0.0001892911706699585</v>
+      </c>
+      <c r="T13">
+        <v>0.0001892911706699585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H14">
+        <v>363.974446</v>
+      </c>
+      <c r="I14">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J14">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.05069933333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.152098</v>
+      </c>
+      <c r="O14">
+        <v>0.2195324373905752</v>
+      </c>
+      <c r="P14">
+        <v>0.2195324373905752</v>
+      </c>
+      <c r="Q14">
+        <v>6.151087254189778</v>
+      </c>
+      <c r="R14">
+        <v>55.35978528770801</v>
+      </c>
+      <c r="S14">
+        <v>0.04568982386441087</v>
+      </c>
+      <c r="T14">
+        <v>0.04568982386441087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H15">
+        <v>363.974446</v>
+      </c>
+      <c r="I15">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J15">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1795236666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.538571</v>
+      </c>
+      <c r="O15">
+        <v>0.7773527879254128</v>
+      </c>
+      <c r="P15">
+        <v>0.7773527879254128</v>
+      </c>
+      <c r="Q15">
+        <v>21.78067570629622</v>
+      </c>
+      <c r="R15">
+        <v>196.026081356666</v>
+      </c>
+      <c r="S15">
+        <v>0.1617852577185737</v>
+      </c>
+      <c r="T15">
+        <v>0.1617852577185737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H16">
+        <v>363.974446</v>
+      </c>
+      <c r="I16">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J16">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.0007193333333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.002158</v>
+      </c>
+      <c r="O16">
+        <v>0.003114774684012027</v>
+      </c>
+      <c r="P16">
+        <v>0.003114774684012027</v>
+      </c>
+      <c r="Q16">
+        <v>0.08727298382977779</v>
+      </c>
+      <c r="R16">
+        <v>0.7854568544680001</v>
+      </c>
+      <c r="S16">
+        <v>0.0006482573071269752</v>
+      </c>
+      <c r="T16">
+        <v>0.0006482573071269751</v>
       </c>
     </row>
   </sheetData>
